--- a/resources/practice.xlsx
+++ b/resources/practice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agust\OneDrive\Desktop\CNC\Paradigmas\Python\Rutvik\word-naming\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agust\OneDrive\Desktop\CNC\Paradigmas\Python\Rutvik\rutvik-word-naming\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA4CB20-8EEA-4E8C-AE10-3EA09E86F0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1EB453-9B12-47D6-AAF9-BE744B306A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EFFAE6B3-D452-4DD4-A4FD-CCDEC2CD8BE7}"/>
+    <workbookView xWindow="8712" yWindow="1788" windowWidth="17280" windowHeight="8880" xr2:uid="{EFFAE6B3-D452-4DD4-A4FD-CCDEC2CD8BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="practice" sheetId="2" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>softness</t>
   </si>
   <si>
-    <t>pregón</t>
-  </si>
-  <si>
     <t>proclamation</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>englishWord</t>
+  </si>
+  <si>
+    <t>proclamación</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -686,10 +686,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>19</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>7</v>
@@ -715,10 +715,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>7</v>
@@ -741,10 +741,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="F6" s="11">
         <v>9</v>
@@ -752,10 +752,10 @@
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="11">
         <v>8</v>
